--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H2">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I2">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J2">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.47609633333333</v>
+        <v>17.96491</v>
       </c>
       <c r="N2">
-        <v>76.42828900000001</v>
+        <v>53.89473</v>
       </c>
       <c r="O2">
-        <v>0.2184753666375218</v>
+        <v>0.1605217090392217</v>
       </c>
       <c r="P2">
-        <v>0.2354646465379024</v>
+        <v>0.1740895558373204</v>
       </c>
       <c r="Q2">
-        <v>644.6987986499986</v>
+        <v>573.2305222207367</v>
       </c>
       <c r="R2">
-        <v>5802.289187849989</v>
+        <v>5159.074699986631</v>
       </c>
       <c r="S2">
-        <v>0.02589219981282541</v>
+        <v>0.01806730401815999</v>
       </c>
       <c r="T2">
-        <v>0.0287816368286764</v>
+        <v>0.0201571902441562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H3">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I3">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J3">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>126.504335</v>
       </c>
       <c r="O3">
-        <v>0.3616210873222725</v>
+        <v>0.3767843730745145</v>
       </c>
       <c r="P3">
-        <v>0.389741794772972</v>
+        <v>0.4086314838509364</v>
       </c>
       <c r="Q3">
-        <v>1067.107400487756</v>
+        <v>1345.514598834376</v>
       </c>
       <c r="R3">
-        <v>9603.966604389807</v>
+        <v>12109.63138950938</v>
       </c>
       <c r="S3">
-        <v>0.04285684740382717</v>
+        <v>0.04240845589281469</v>
       </c>
       <c r="T3">
-        <v>0.04763945228740128</v>
+        <v>0.04731393862267178</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H4">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I4">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J4">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.184892</v>
+        <v>7.700863999999999</v>
       </c>
       <c r="N4">
-        <v>33.554676</v>
+        <v>23.102592</v>
       </c>
       <c r="O4">
-        <v>0.09591828153451469</v>
+        <v>0.06880946524967933</v>
       </c>
       <c r="P4">
-        <v>0.1033771660652228</v>
+        <v>0.07462547785230264</v>
       </c>
       <c r="Q4">
-        <v>283.0451864006787</v>
+        <v>245.7218150422613</v>
       </c>
       <c r="R4">
-        <v>2547.406677606109</v>
+        <v>2211.496335380352</v>
       </c>
       <c r="S4">
-        <v>0.01136757589387638</v>
+        <v>0.007744756366188506</v>
       </c>
       <c r="T4">
-        <v>0.01263613919887575</v>
+        <v>0.008640609983149019</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H5">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I5">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J5">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.2406725</v>
+        <v>26.1668075</v>
       </c>
       <c r="N5">
-        <v>50.481345</v>
+        <v>52.33361499999999</v>
       </c>
       <c r="O5">
-        <v>0.2164564424024374</v>
+        <v>0.2338080547022124</v>
       </c>
       <c r="P5">
-        <v>0.1555258165884481</v>
+        <v>0.1690468769527434</v>
       </c>
       <c r="Q5">
-        <v>638.7411566102725</v>
+        <v>834.9394863695107</v>
       </c>
       <c r="R5">
-        <v>3832.446939661635</v>
+        <v>5009.636918217065</v>
       </c>
       <c r="S5">
-        <v>0.02565293077986166</v>
+        <v>0.02631594960883014</v>
       </c>
       <c r="T5">
-        <v>0.01901044439727179</v>
+        <v>0.01957331697773467</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H6">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I6">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J6">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.53878033333333</v>
+        <v>17.91507266666667</v>
       </c>
       <c r="N6">
-        <v>37.61634099999999</v>
+        <v>53.74521800000001</v>
       </c>
       <c r="O6">
-        <v>0.1075288221032534</v>
+        <v>0.1600763979343721</v>
       </c>
       <c r="P6">
-        <v>0.1158905760354547</v>
+        <v>0.1736066055066972</v>
       </c>
       <c r="Q6">
-        <v>317.3067220215892</v>
+        <v>571.6402954613066</v>
       </c>
       <c r="R6">
-        <v>2855.760498194303</v>
+        <v>5144.762659151759</v>
       </c>
       <c r="S6">
-        <v>0.01274357741280034</v>
+        <v>0.01801718262858511</v>
       </c>
       <c r="T6">
-        <v>0.01416569544669055</v>
+        <v>0.02010127119923689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>196.709926</v>
       </c>
       <c r="I7">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J7">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.47609633333333</v>
+        <v>17.96491</v>
       </c>
       <c r="N7">
-        <v>76.42828900000001</v>
+        <v>53.89473</v>
       </c>
       <c r="O7">
-        <v>0.2184753666375218</v>
+        <v>0.1605217090392217</v>
       </c>
       <c r="P7">
-        <v>0.2354646465379024</v>
+        <v>0.1740895558373204</v>
       </c>
       <c r="Q7">
-        <v>1670.46700816629</v>
+        <v>1177.958705565553</v>
       </c>
       <c r="R7">
-        <v>15034.20307349662</v>
+        <v>10601.62835008998</v>
       </c>
       <c r="S7">
-        <v>0.0670887950260559</v>
+        <v>0.03712736365091126</v>
       </c>
       <c r="T7">
-        <v>0.07457556127606393</v>
+        <v>0.04142197040704941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>196.709926</v>
       </c>
       <c r="I8">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J8">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>126.504335</v>
       </c>
       <c r="O8">
-        <v>0.3616210873222725</v>
+        <v>0.3767843730745145</v>
       </c>
       <c r="P8">
-        <v>0.389741794772972</v>
+        <v>0.4086314838509364</v>
       </c>
       <c r="Q8">
         <v>2764.962041836579</v>
@@ -948,10 +948,10 @@
         <v>24884.65837652921</v>
       </c>
       <c r="S8">
-        <v>0.1110455763404897</v>
+        <v>0.08714715611269785</v>
       </c>
       <c r="T8">
-        <v>0.1234376944704364</v>
+        <v>0.09722766624368402</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>196.709926</v>
       </c>
       <c r="I9">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J9">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.184892</v>
+        <v>7.700863999999999</v>
       </c>
       <c r="N9">
-        <v>33.554676</v>
+        <v>23.102592</v>
       </c>
       <c r="O9">
-        <v>0.09591828153451469</v>
+        <v>0.06880946524967933</v>
       </c>
       <c r="P9">
-        <v>0.1033771660652228</v>
+        <v>0.07462547785230264</v>
       </c>
       <c r="Q9">
-        <v>733.3930925459973</v>
+        <v>504.9454625253546</v>
       </c>
       <c r="R9">
-        <v>6600.537832913976</v>
+        <v>4544.509162728192</v>
       </c>
       <c r="S9">
-        <v>0.02945431344576767</v>
+        <v>0.01591506877319235</v>
       </c>
       <c r="T9">
-        <v>0.03274126411669993</v>
+        <v>0.01775600104407493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>196.709926</v>
       </c>
       <c r="I10">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J10">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.2406725</v>
+        <v>26.1668075</v>
       </c>
       <c r="N10">
-        <v>50.481345</v>
+        <v>52.33361499999999</v>
       </c>
       <c r="O10">
-        <v>0.2164564424024374</v>
+        <v>0.2338080547022124</v>
       </c>
       <c r="P10">
-        <v>0.1555258165884481</v>
+        <v>0.1690468769527434</v>
       </c>
       <c r="Q10">
-        <v>1655.030273221745</v>
+        <v>1715.756922327081</v>
       </c>
       <c r="R10">
-        <v>9930.181639330469</v>
+        <v>10294.54153396249</v>
       </c>
       <c r="S10">
-        <v>0.06646882950653152</v>
+        <v>0.05407789839391858</v>
       </c>
       <c r="T10">
-        <v>0.04925760718450237</v>
+        <v>0.04022214141946563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>196.709926</v>
       </c>
       <c r="I11">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J11">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.53878033333333</v>
+        <v>17.91507266666667</v>
       </c>
       <c r="N11">
-        <v>37.61634099999999</v>
+        <v>53.74521800000001</v>
       </c>
       <c r="O11">
-        <v>0.1075288221032534</v>
+        <v>0.1600763979343721</v>
       </c>
       <c r="P11">
-        <v>0.1158905760354547</v>
+        <v>0.1736066055066972</v>
       </c>
       <c r="Q11">
-        <v>822.1675171667515</v>
+        <v>1174.690872848208</v>
       </c>
       <c r="R11">
-        <v>7399.507654500764</v>
+        <v>10572.21785563387</v>
       </c>
       <c r="S11">
-        <v>0.03301964526484719</v>
+        <v>0.03702436681997483</v>
       </c>
       <c r="T11">
-        <v>0.03670446872396706</v>
+        <v>0.04130705969797826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H12">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I12">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J12">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.47609633333333</v>
+        <v>17.96491</v>
       </c>
       <c r="N12">
-        <v>76.42828900000001</v>
+        <v>53.89473</v>
       </c>
       <c r="O12">
-        <v>0.2184753666375218</v>
+        <v>0.1605217090392217</v>
       </c>
       <c r="P12">
-        <v>0.2354646465379024</v>
+        <v>0.1740895558373204</v>
       </c>
       <c r="Q12">
-        <v>1346.246843889326</v>
+        <v>1537.42620088909</v>
       </c>
       <c r="R12">
-        <v>12116.22159500393</v>
+        <v>13836.83580800181</v>
       </c>
       <c r="S12">
-        <v>0.05406756201866558</v>
+        <v>0.04845720089945178</v>
       </c>
       <c r="T12">
-        <v>0.06010122529111442</v>
+        <v>0.05406235574758553</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H13">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I13">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J13">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>126.504335</v>
       </c>
       <c r="O13">
-        <v>0.3616210873222725</v>
+        <v>0.3767843730745145</v>
       </c>
       <c r="P13">
-        <v>0.389741794772972</v>
+        <v>0.4086314838509364</v>
       </c>
       <c r="Q13">
-        <v>2228.311845788775</v>
+        <v>3608.721653398222</v>
       </c>
       <c r="R13">
-        <v>20054.80661209898</v>
+        <v>32478.494880584</v>
       </c>
       <c r="S13">
-        <v>0.08949279210270619</v>
+        <v>0.1137411018803981</v>
       </c>
       <c r="T13">
-        <v>0.09947972979138144</v>
+        <v>0.1268977943183264</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H14">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I14">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J14">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.184892</v>
+        <v>7.700863999999999</v>
       </c>
       <c r="N14">
-        <v>33.554676</v>
+        <v>23.102592</v>
       </c>
       <c r="O14">
-        <v>0.09591828153451469</v>
+        <v>0.06880946524967933</v>
       </c>
       <c r="P14">
-        <v>0.1033771660652228</v>
+        <v>0.07462547785230264</v>
       </c>
       <c r="Q14">
-        <v>591.0491684921652</v>
+        <v>659.035312900736</v>
       </c>
       <c r="R14">
-        <v>5319.442516429488</v>
+        <v>5931.317816106623</v>
       </c>
       <c r="S14">
-        <v>0.0237375394554002</v>
+        <v>0.02077173300324665</v>
       </c>
       <c r="T14">
-        <v>0.02638652740016658</v>
+        <v>0.02317444669256759</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H15">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I15">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J15">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.2406725</v>
+        <v>26.1668075</v>
       </c>
       <c r="N15">
-        <v>50.481345</v>
+        <v>52.33361499999999</v>
       </c>
       <c r="O15">
-        <v>0.2164564424024374</v>
+        <v>0.2338080547022124</v>
       </c>
       <c r="P15">
-        <v>0.1555258165884481</v>
+        <v>0.1690468769527434</v>
       </c>
       <c r="Q15">
-        <v>1333.80621764681</v>
+        <v>2239.339659598692</v>
       </c>
       <c r="R15">
-        <v>8002.837305880859</v>
+        <v>13436.03795759215</v>
       </c>
       <c r="S15">
-        <v>0.05356792531832984</v>
+        <v>0.07058038408902585</v>
       </c>
       <c r="T15">
-        <v>0.03969722112768313</v>
+        <v>0.05249638529940085</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H16">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I16">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J16">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.53878033333333</v>
+        <v>17.91507266666667</v>
       </c>
       <c r="N16">
-        <v>37.61634099999999</v>
+        <v>53.74521800000001</v>
       </c>
       <c r="O16">
-        <v>0.1075288221032534</v>
+        <v>0.1600763979343721</v>
       </c>
       <c r="P16">
-        <v>0.1158905760354547</v>
+        <v>0.1736066055066972</v>
       </c>
       <c r="Q16">
-        <v>662.5934063487229</v>
+        <v>1533.161151854661</v>
       </c>
       <c r="R16">
-        <v>5963.340657138507</v>
+        <v>13798.45036669195</v>
       </c>
       <c r="S16">
-        <v>0.0266108776808123</v>
+        <v>0.04832277341422497</v>
       </c>
       <c r="T16">
-        <v>0.02958051546945377</v>
+        <v>0.05391237872882075</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H17">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I17">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J17">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.47609633333333</v>
+        <v>17.96491</v>
       </c>
       <c r="N17">
-        <v>76.42828900000001</v>
+        <v>53.89473</v>
       </c>
       <c r="O17">
-        <v>0.2184753666375218</v>
+        <v>0.1605217090392217</v>
       </c>
       <c r="P17">
-        <v>0.2354646465379024</v>
+        <v>0.1740895558373204</v>
       </c>
       <c r="Q17">
-        <v>496.698049531453</v>
+        <v>426.575808862405</v>
       </c>
       <c r="R17">
-        <v>2980.188297188718</v>
+        <v>2559.45485317443</v>
       </c>
       <c r="S17">
-        <v>0.01994823811063272</v>
+        <v>0.01344498334745297</v>
       </c>
       <c r="T17">
-        <v>0.01478290627609008</v>
+        <v>0.01000013013901496</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H18">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I18">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J18">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>126.504335</v>
       </c>
       <c r="O18">
-        <v>0.3616210873222725</v>
+        <v>0.3767843730745145</v>
       </c>
       <c r="P18">
-        <v>0.389741794772972</v>
+        <v>0.4086314838509364</v>
       </c>
       <c r="Q18">
-        <v>822.136113131795</v>
+        <v>1001.279513362914</v>
       </c>
       <c r="R18">
-        <v>4932.81667879077</v>
+        <v>6007.677080177485</v>
       </c>
       <c r="S18">
-        <v>0.03301838402541301</v>
+        <v>0.03155871970145527</v>
       </c>
       <c r="T18">
-        <v>0.02446871115777696</v>
+        <v>0.02347279248174255</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H19">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I19">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J19">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.184892</v>
+        <v>7.700863999999999</v>
       </c>
       <c r="N19">
-        <v>33.554676</v>
+        <v>23.102592</v>
       </c>
       <c r="O19">
-        <v>0.09591828153451469</v>
+        <v>0.06880946524967933</v>
       </c>
       <c r="P19">
-        <v>0.1033771660652228</v>
+        <v>0.07462547785230264</v>
       </c>
       <c r="Q19">
-        <v>218.067712098852</v>
+        <v>182.856595982912</v>
       </c>
       <c r="R19">
-        <v>1308.406272593112</v>
+        <v>1097.139575897472</v>
       </c>
       <c r="S19">
-        <v>0.008757970057044361</v>
+        <v>0.00576334578024605</v>
       </c>
       <c r="T19">
-        <v>0.006490209802192081</v>
+        <v>0.004286670079775255</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H20">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I20">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J20">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.2406725</v>
+        <v>26.1668075</v>
       </c>
       <c r="N20">
-        <v>50.481345</v>
+        <v>52.33361499999999</v>
       </c>
       <c r="O20">
-        <v>0.2164564424024374</v>
+        <v>0.2338080547022124</v>
       </c>
       <c r="P20">
-        <v>0.1555258165884481</v>
+        <v>0.1690468769527434</v>
       </c>
       <c r="Q20">
-        <v>492.1080779243475</v>
+        <v>621.3294179964912</v>
       </c>
       <c r="R20">
-        <v>1968.43231169739</v>
+        <v>2485.317671985965</v>
       </c>
       <c r="S20">
-        <v>0.01976389704743355</v>
+        <v>0.01958330384585881</v>
       </c>
       <c r="T20">
-        <v>0.009764198591780179</v>
+        <v>0.009710466322868771</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H21">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I21">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J21">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.53878033333333</v>
+        <v>17.91507266666667</v>
       </c>
       <c r="N21">
-        <v>37.61634099999999</v>
+        <v>53.74521800000001</v>
       </c>
       <c r="O21">
-        <v>0.1075288221032534</v>
+        <v>0.1600763979343721</v>
       </c>
       <c r="P21">
-        <v>0.1158905760354547</v>
+        <v>0.1736066055066972</v>
       </c>
       <c r="Q21">
-        <v>244.4639733490569</v>
+        <v>425.3924240985398</v>
       </c>
       <c r="R21">
-        <v>1466.783840094342</v>
+        <v>2552.354544591238</v>
       </c>
       <c r="S21">
-        <v>0.009818088785407139</v>
+        <v>0.01340768496317228</v>
       </c>
       <c r="T21">
-        <v>0.007275824838266946</v>
+        <v>0.009972388290093101</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H22">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I22">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J22">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.47609633333333</v>
+        <v>17.96491</v>
       </c>
       <c r="N22">
-        <v>76.42828900000001</v>
+        <v>53.89473</v>
       </c>
       <c r="O22">
-        <v>0.2184753666375218</v>
+        <v>0.1605217090392217</v>
       </c>
       <c r="P22">
-        <v>0.2354646465379024</v>
+        <v>0.1740895558373204</v>
       </c>
       <c r="Q22">
-        <v>1281.782681709546</v>
+        <v>1377.762476410363</v>
       </c>
       <c r="R22">
-        <v>11536.04413538592</v>
+        <v>12399.86228769327</v>
       </c>
       <c r="S22">
-        <v>0.05147857166934219</v>
+        <v>0.0434248571232457</v>
       </c>
       <c r="T22">
-        <v>0.0572233168659576</v>
+        <v>0.04844790929951429</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H23">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I23">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J23">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>126.504335</v>
       </c>
       <c r="O23">
-        <v>0.3616210873222725</v>
+        <v>0.3767843730745145</v>
       </c>
       <c r="P23">
-        <v>0.389741794772972</v>
+        <v>0.4086314838509364</v>
       </c>
       <c r="Q23">
-        <v>2121.610569669861</v>
+        <v>3233.951183469074</v>
       </c>
       <c r="R23">
-        <v>19094.49512702875</v>
+        <v>29105.56065122167</v>
       </c>
       <c r="S23">
-        <v>0.08520748744983646</v>
+        <v>0.1019289394871486</v>
       </c>
       <c r="T23">
-        <v>0.09471620706597592</v>
+        <v>0.1137192921845117</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H24">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I24">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J24">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.184892</v>
+        <v>7.700863999999999</v>
       </c>
       <c r="N24">
-        <v>33.554676</v>
+        <v>23.102592</v>
       </c>
       <c r="O24">
-        <v>0.09591828153451469</v>
+        <v>0.06880946524967933</v>
       </c>
       <c r="P24">
-        <v>0.1033771660652228</v>
+        <v>0.07462547785230264</v>
       </c>
       <c r="Q24">
-        <v>562.747160114692</v>
+        <v>590.5936325391787</v>
       </c>
       <c r="R24">
-        <v>5064.724441032227</v>
+        <v>5315.342692852608</v>
       </c>
       <c r="S24">
-        <v>0.02260088268242608</v>
+        <v>0.01861456132680578</v>
       </c>
       <c r="T24">
-        <v>0.02512302554728842</v>
+        <v>0.02076775005273585</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H25">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I25">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J25">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.2406725</v>
+        <v>26.1668075</v>
       </c>
       <c r="N25">
-        <v>50.481345</v>
+        <v>52.33361499999999</v>
       </c>
       <c r="O25">
-        <v>0.2164564424024374</v>
+        <v>0.2338080547022124</v>
       </c>
       <c r="P25">
-        <v>0.1555258165884481</v>
+        <v>0.1690468769527434</v>
       </c>
       <c r="Q25">
-        <v>1269.937766834047</v>
+        <v>2006.781303160064</v>
       </c>
       <c r="R25">
-        <v>7619.626601004284</v>
+        <v>12040.68781896038</v>
       </c>
       <c r="S25">
-        <v>0.05100285975028086</v>
+        <v>0.06325051876457906</v>
       </c>
       <c r="T25">
-        <v>0.03779634528721066</v>
+        <v>0.04704456693327345</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H26">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I26">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J26">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.53878033333333</v>
+        <v>17.91507266666667</v>
       </c>
       <c r="N26">
-        <v>37.61634099999999</v>
+        <v>53.74521800000001</v>
       </c>
       <c r="O26">
-        <v>0.1075288221032534</v>
+        <v>0.1600763979343721</v>
       </c>
       <c r="P26">
-        <v>0.1158905760354547</v>
+        <v>0.1736066055066972</v>
       </c>
       <c r="Q26">
-        <v>630.8655482668302</v>
+        <v>1373.940358303954</v>
       </c>
       <c r="R26">
-        <v>5677.789934401471</v>
+        <v>12365.46322473558</v>
       </c>
       <c r="S26">
-        <v>0.02533663295938647</v>
+        <v>0.04330439010841493</v>
       </c>
       <c r="T26">
-        <v>0.02816407155707636</v>
+        <v>0.04831350759056819</v>
       </c>
     </row>
   </sheetData>
